--- a/src/test/resources/resources/Book14.xlsx
+++ b/src/test/resources/resources/Book14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11790" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12090" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="3">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>20000869</t>
+  </si>
+  <si>
+    <t>20000870</t>
   </si>
 </sst>
 </file>
@@ -355,17 +358,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s" s="0">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/resources/Book14.xlsx
+++ b/src/test/resources/resources/Book14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="5">
   <si>
     <t>Row</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>20000870</t>
+  </si>
+  <si>
+    <t>20001252</t>
+  </si>
+  <si>
+    <t>20001254</t>
   </si>
 </sst>
 </file>
@@ -373,32 +379,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/resources/Book14.xlsx
+++ b/src/test/resources/resources/Book14.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="5">
   <si>
     <t>Row</t>
   </si>

--- a/src/test/resources/resources/Book14.xlsx
+++ b/src/test/resources/resources/Book14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12090" windowHeight="6390"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16380" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,28 +17,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>20000869</t>
-  </si>
-  <si>
-    <t>20000870</t>
-  </si>
-  <si>
-    <t>20001252</t>
-  </si>
-  <si>
-    <t>20001254</t>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>f12</t>
+  </si>
+  <si>
+    <t>f13</t>
+  </si>
+  <si>
+    <t>f14</t>
+  </si>
+  <si>
+    <t>f15</t>
+  </si>
+  <si>
+    <t>f16</t>
+  </si>
+  <si>
+    <t>f20</t>
+  </si>
+  <si>
+    <t>f17</t>
+  </si>
+  <si>
+    <t>f18</t>
+  </si>
+  <si>
+    <t>f21</t>
+  </si>
+  <si>
+    <t>f22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -364,47 +393,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s" s="0">
-        <v>4</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
